--- a/excel/message_details/message_details_AggregatedAllocationSeriesNotification_1p0.xlsx
+++ b/excel/message_details/message_details_AggregatedAllocationSeriesNotification_1p0.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
   <si>
     <t>XML ELEMENT PATH</t>
   </si>
@@ -204,9 +204,6 @@
     <t>struct_connections</t>
   </si>
   <si>
-    <t>2022-03-04T15:20:01Z</t>
-  </si>
-  <si>
     <t>N102</t>
   </si>
   <si>
@@ -219,12 +216,6 @@
     <t>DDQ</t>
   </si>
   <si>
-    <t>2022-03-02T23:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-03-03T23:00:00Z</t>
-  </si>
-  <si>
     <t>Generate_message_ID</t>
   </si>
   <si>
@@ -237,9 +228,6 @@
     <t>8716948001017</t>
   </si>
   <si>
-    <t>871692100000010083</t>
-  </si>
-  <si>
     <t>load_from_values_file</t>
   </si>
   <si>
@@ -286,6 +274,15 @@
   </si>
   <si>
     <t>""</t>
+  </si>
+  <si>
+    <t>2021-03-02T15:20:01Z</t>
+  </si>
+  <si>
+    <t>2021-03-01T23:00:00Z</t>
+  </si>
+  <si>
+    <t>2021-03-02T23:00:00Z</t>
   </si>
 </sst>
 </file>
@@ -655,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -686,7 +683,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -694,7 +691,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -702,7 +699,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -710,7 +707,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -718,7 +715,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -726,7 +723,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -734,7 +731,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -742,7 +739,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -750,7 +747,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -758,7 +755,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -766,7 +763,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -774,7 +771,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -782,7 +779,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -790,7 +787,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -798,7 +795,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -806,7 +803,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -814,7 +811,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -822,7 +819,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -830,7 +827,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -838,7 +835,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -846,7 +843,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -854,7 +851,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -862,7 +859,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -878,7 +875,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -886,7 +883,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -894,7 +891,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -902,15 +899,15 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
-        <v>72</v>
+      <c r="B31">
+        <v>8.7169210000000998E+17</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -918,7 +915,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -926,7 +923,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -934,7 +931,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -942,7 +939,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -950,7 +947,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -958,7 +955,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -966,7 +963,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -974,7 +971,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -982,7 +979,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -990,7 +987,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -998,7 +995,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1011,7 +1008,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1019,7 +1016,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1027,7 +1024,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1035,7 +1032,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1043,7 +1040,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1051,7 +1048,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1059,7 +1056,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1067,7 +1064,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1075,7 +1072,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1083,7 +1080,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1091,7 +1088,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1104,7 +1101,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1112,7 +1109,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -1120,7 +1117,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1128,7 +1125,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1136,7 +1133,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
